--- a/服务器动态扩缩容.xlsx
+++ b/服务器动态扩缩容.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF23C45-06AE-47F7-BCC3-EB07939A7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF649A-65C1-40EA-A7A4-4A4962DEE296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战场服进程需要支持动摇开启，当人数变变少，或者活动关闭时，需要能动态拉起战场服进程；人工方式太麻烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面对大量的战场服进程，全靠运维人工操作不太现实</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +62,10 @@
   </si>
   <si>
     <t>不管是那种语言，那种引擎的游戏服务器，只要是那种开战场或房间的游戏，一般都会面临扩缩容问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场服进程需要支持动摇开启，当人数变变少，或者活动关闭时，需要能动态关闭战场服进程；人工方式太麻烦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,14 +412,14 @@
   <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -430,7 +430,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -488,7 +488,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
